--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>836568.1181314011</v>
+        <v>855677.247121259</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12049526.89607446</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>1539357.369879109</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7623603.967222477</v>
+        <v>7980999.086127774</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>116.700488063631</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>361.3324826687164</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>57.24387488545717</v>
+        <v>78.2758222914308</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>79.49249945708952</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>256.3586958668891</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1054,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>151.8031661589856</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>104.9037564455521</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1139,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>142.9849883401679</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4628785347759695</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1294,16 +1296,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>4.322062388456545</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>171.1720094918776</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1370,25 +1372,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>203.985876846636</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>163.9725516160256</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1436,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1607,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>374.9746821957025</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>174.7788064468595</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>19.53872709080487</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>219.6035253819533</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2479,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.0606729676881</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>50.75755770605702</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2773,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>187.2105768578396</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2962,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>152.7790116748991</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3004,16 +3006,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3190,10 +3192,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3244,7 +3246,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>219.2519853749286</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3481,16 +3483,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.74407101221774</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>124.2290557831222</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>26.6495006022655</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>265.2287806348038</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>113.8623328628341</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3791,10 +3793,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3989,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>96.60383727873445</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>140.0871666311209</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>92.01098438110748</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>59.52286283173624</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.525280420256</v>
+        <v>1316.805947015338</v>
       </c>
       <c r="C2" t="n">
-        <v>1058.624550433556</v>
+        <v>889.9052170286379</v>
       </c>
       <c r="D2" t="n">
-        <v>940.7452695612013</v>
+        <v>466.6125962136382</v>
       </c>
       <c r="E2" t="n">
-        <v>514.7683297090589</v>
+        <v>444.6760604018998</v>
       </c>
       <c r="F2" t="n">
-        <v>89.64414789845907</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>417.0520770886785</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>417.0520770886785</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>417.0520770886785</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N2" t="n">
-        <v>918.7421318583365</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.543782971651</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2266.345434084965</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2722.430913589148</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2722.430913589148</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>2722.430913589148</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W2" t="n">
-        <v>2722.430913589148</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="X2" t="n">
-        <v>2310.710914756895</v>
+        <v>1333.910773271169</v>
       </c>
       <c r="Y2" t="n">
-        <v>1905.373644711786</v>
+        <v>1332.613907266464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>326.146107551374</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>916.6310341197136</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>1189.334597738979</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M3" t="n">
-        <v>1189.334597738979</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N3" t="n">
-        <v>1189.334597738979</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O3" t="n">
-        <v>1189.334597738979</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278.5276838214469</v>
+        <v>458.7432593109778</v>
       </c>
       <c r="C4" t="n">
-        <v>220.7055879775508</v>
+        <v>379.6767721479164</v>
       </c>
       <c r="D4" t="n">
-        <v>220.7055879775508</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E4" t="n">
-        <v>220.7055879775508</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
-        <v>220.7055879775508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2017.687984891219</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1774.348637117119</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.164188617424</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.452721225452</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>937.6003173979655</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>695.0364208437705</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>468.6936525335126</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.525280420256</v>
+        <v>2516.694910195414</v>
       </c>
       <c r="C5" t="n">
-        <v>1058.624550433556</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="D5" t="n">
-        <v>799.6763727902336</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E5" t="n">
-        <v>373.6994329380911</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F5" t="n">
-        <v>352.6156551678955</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G5" t="n">
-        <v>352.3169967977481</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K5" t="n">
-        <v>54.44861827178296</v>
+        <v>793.804433513426</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>1403.33535544657</v>
       </c>
       <c r="M5" t="n">
-        <v>1374.82761136252</v>
+        <v>2372.249908978417</v>
       </c>
       <c r="N5" t="n">
-        <v>2048.629262475834</v>
+        <v>3341.164462510263</v>
       </c>
       <c r="O5" t="n">
-        <v>2722.430913589148</v>
+        <v>3341.164462510263</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3341.164462510263</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="V5" t="n">
-        <v>2722.430913589148</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="W5" t="n">
-        <v>2722.430913589148</v>
+        <v>3414.047633069837</v>
       </c>
       <c r="X5" t="n">
-        <v>2310.710914756895</v>
+        <v>3002.327634237584</v>
       </c>
       <c r="Y5" t="n">
-        <v>1905.373644711786</v>
+        <v>2596.990364192474</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1480.866774040094</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C6" t="n">
-        <v>1363.360870557599</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D6" t="n">
-        <v>1259.520912072884</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E6" t="n">
-        <v>1154.818978345821</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F6" t="n">
-        <v>1061.173148028725</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G6" t="n">
-        <v>967.1193762463289</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H6" t="n">
-        <v>913.7432830086385</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I6" t="n">
-        <v>913.7432830086385</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J6" t="n">
-        <v>913.7432830086385</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K6" t="n">
-        <v>1504.228209576978</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="L6" t="n">
-        <v>2048.629262475834</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="M6" t="n">
-        <v>2048.629262475834</v>
+        <v>918.0692025865903</v>
       </c>
       <c r="N6" t="n">
-        <v>2048.629262475834</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O6" t="n">
-        <v>2048.629262475834</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P6" t="n">
-        <v>2722.430913589148</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q6" t="n">
-        <v>2722.430913589148</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R6" t="n">
-        <v>2722.430913589148</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S6" t="n">
-        <v>2641.106666150403</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T6" t="n">
-        <v>2499.226730448081</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U6" t="n">
-        <v>2314.458534367718</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V6" t="n">
-        <v>2109.485395506984</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W6" t="n">
-        <v>1912.964018340201</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X6" t="n">
-        <v>1749.486672106864</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y6" t="n">
-        <v>1609.793783460156</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>389.7379542660963</v>
+        <v>1043.072648155079</v>
       </c>
       <c r="C7" t="n">
-        <v>217.7653911450122</v>
+        <v>889.7361166813558</v>
       </c>
       <c r="D7" t="n">
-        <v>54.44861827178296</v>
+        <v>726.4193438081265</v>
       </c>
       <c r="E7" t="n">
-        <v>54.44861827178296</v>
+        <v>560.2111379609801</v>
       </c>
       <c r="F7" t="n">
-        <v>54.44861827178296</v>
+        <v>388.3493637355405</v>
       </c>
       <c r="G7" t="n">
-        <v>54.44861827178296</v>
+        <v>222.0923940297726</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S7" t="n">
-        <v>2128.898255335869</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T7" t="n">
-        <v>1885.558907561769</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="U7" t="n">
-        <v>1605.374459062073</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="V7" t="n">
-        <v>1323.662991670102</v>
+        <v>1976.997685559084</v>
       </c>
       <c r="W7" t="n">
-        <v>1048.810587842615</v>
+        <v>1702.145281731597</v>
       </c>
       <c r="X7" t="n">
-        <v>806.2466912884199</v>
+        <v>1459.581385177402</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.903922978162</v>
+        <v>1233.238616867144</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>948.4284951010952</v>
+        <v>1924.019879154054</v>
       </c>
       <c r="C8" t="n">
-        <v>521.5277651143954</v>
+        <v>1497.119149167354</v>
       </c>
       <c r="D8" t="n">
-        <v>98.23514429939564</v>
+        <v>1073.826528352354</v>
       </c>
       <c r="E8" t="n">
-        <v>76.29860848765725</v>
+        <v>647.8495885002116</v>
       </c>
       <c r="F8" t="n">
-        <v>55.21483071746155</v>
+        <v>222.7254066896118</v>
       </c>
       <c r="G8" t="n">
-        <v>54.91617234731424</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H8" t="n">
-        <v>54.91617234731424</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K8" t="n">
-        <v>54.44861827178296</v>
+        <v>793.804433513426</v>
       </c>
       <c r="L8" t="n">
-        <v>728.2502693850971</v>
+        <v>1723.429481132703</v>
       </c>
       <c r="M8" t="n">
-        <v>1402.051920498411</v>
+        <v>2692.344034664549</v>
       </c>
       <c r="N8" t="n">
-        <v>2075.853571611725</v>
+        <v>3661.258588196396</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T8" t="n">
-        <v>2397.138048506922</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U8" t="n">
-        <v>2138.783139103334</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="V8" t="n">
-        <v>1781.293724229584</v>
+        <v>3557.316862022599</v>
       </c>
       <c r="W8" t="n">
-        <v>1781.293724229584</v>
+        <v>3160.925512322946</v>
       </c>
       <c r="X8" t="n">
-        <v>1773.614129437735</v>
+        <v>2749.205513490693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1368.276859392625</v>
+        <v>2343.868243445584</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="L9" t="n">
-        <v>54.44861827178296</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="M9" t="n">
-        <v>728.2502693850971</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="N9" t="n">
-        <v>1402.051920498411</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>568.9056449083739</v>
+        <v>2235.890791324681</v>
       </c>
       <c r="C10" t="n">
-        <v>396.9330817872899</v>
+        <v>2063.918228203597</v>
       </c>
       <c r="D10" t="n">
-        <v>396.9330817872899</v>
+        <v>1900.601455330367</v>
       </c>
       <c r="E10" t="n">
-        <v>392.5673622029904</v>
+        <v>1734.393249483221</v>
       </c>
       <c r="F10" t="n">
-        <v>220.7055879775508</v>
+        <v>1734.393249483221</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>1734.393249483221</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>1734.393249483221</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>1734.393249483221</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>1791.884577707379</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>2018.412178913216</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>2373.101500207637</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>2764.287295177888</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>3141.778806053923</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>3497.206934733686</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>3787.806146655587</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>3867.767663583522</v>
       </c>
       <c r="S10" t="n">
-        <v>2064.726598204046</v>
+        <v>3867.767663583522</v>
       </c>
       <c r="T10" t="n">
-        <v>2064.726598204046</v>
+        <v>3624.428315809422</v>
       </c>
       <c r="U10" t="n">
-        <v>1784.542149704351</v>
+        <v>3451.527296120657</v>
       </c>
       <c r="V10" t="n">
-        <v>1502.830682312379</v>
+        <v>3169.815828728686</v>
       </c>
       <c r="W10" t="n">
-        <v>1227.978278484892</v>
+        <v>2894.963424901199</v>
       </c>
       <c r="X10" t="n">
-        <v>985.4143819306975</v>
+        <v>2652.399528347004</v>
       </c>
       <c r="Y10" t="n">
-        <v>759.0716136204395</v>
+        <v>2426.056760036746</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1494.471200765712</v>
+        <v>1444.739398795099</v>
       </c>
       <c r="C11" t="n">
-        <v>1494.471200765712</v>
+        <v>1238.693058545972</v>
       </c>
       <c r="D11" t="n">
-        <v>1071.178579950713</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="E11" t="n">
-        <v>645.2016400985702</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="F11" t="n">
-        <v>220.0774582879704</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>331.8438142378805</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>1047.35212221338</v>
       </c>
       <c r="L11" t="n">
-        <v>127.3841458631196</v>
+        <v>1976.977169832656</v>
       </c>
       <c r="M11" t="n">
-        <v>801.1857969764337</v>
+        <v>2945.891723364502</v>
       </c>
       <c r="N11" t="n">
-        <v>1474.987448089748</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="O11" t="n">
-        <v>1474.987448089748</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="P11" t="n">
-        <v>2148.789099203062</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3693.880705940982</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3435.525796537395</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>3078.036381663645</v>
       </c>
       <c r="W11" t="n">
-        <v>2326.039563889495</v>
+        <v>2681.645031963992</v>
       </c>
       <c r="X11" t="n">
-        <v>1914.319565057242</v>
+        <v>2269.925033131739</v>
       </c>
       <c r="Y11" t="n">
-        <v>1914.319565057242</v>
+        <v>1864.587763086629</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="L12" t="n">
-        <v>728.2502693850971</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="N12" t="n">
-        <v>1189.334597738979</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.6936525335126</v>
+        <v>349.4138044004177</v>
       </c>
       <c r="C13" t="n">
-        <v>468.6936525335126</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="D13" t="n">
-        <v>468.6936525335126</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="E13" t="n">
-        <v>468.6936525335126</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1283.338841804423</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>1008.486437976936</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>765.9225414227413</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>539.5797731124834</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1308.981031484034</v>
+        <v>1340.37210466824</v>
       </c>
       <c r="C14" t="n">
-        <v>882.0803014973341</v>
+        <v>961.6097994200553</v>
       </c>
       <c r="D14" t="n">
-        <v>458.7876806823343</v>
+        <v>538.3171786050556</v>
       </c>
       <c r="E14" t="n">
-        <v>458.7876806823343</v>
+        <v>538.3171786050556</v>
       </c>
       <c r="F14" t="n">
-        <v>458.7876806823343</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L14" t="n">
-        <v>728.2502693850971</v>
+        <v>1007.921173157204</v>
       </c>
       <c r="M14" t="n">
-        <v>1402.051920498411</v>
+        <v>1644.661593709507</v>
       </c>
       <c r="N14" t="n">
-        <v>2075.853571611725</v>
+        <v>2613.576147241354</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>3589.513411814123</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>3331.158502410535</v>
       </c>
       <c r="V14" t="n">
-        <v>2545.886664652926</v>
+        <v>2973.669087536785</v>
       </c>
       <c r="W14" t="n">
-        <v>2545.886664652926</v>
+        <v>2577.277737837132</v>
       </c>
       <c r="X14" t="n">
-        <v>2134.166665820674</v>
+        <v>2165.557739004879</v>
       </c>
       <c r="Y14" t="n">
-        <v>1728.829395775564</v>
+        <v>1760.22046895977</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J15" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K15" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L15" t="n">
-        <v>326.146107551374</v>
+        <v>915.0949336208331</v>
       </c>
       <c r="M15" t="n">
-        <v>999.9477586646882</v>
+        <v>1088.766728995236</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.315287654275</v>
+        <v>1088.766728995236</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.315287654275</v>
+        <v>1088.766728995236</v>
       </c>
       <c r="P15" t="n">
-        <v>1781.11693876759</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="Q15" t="n">
-        <v>1781.11693876759</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>468.6936525335126</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C16" t="n">
-        <v>468.6936525335126</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D16" t="n">
-        <v>468.6936525335126</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E16" t="n">
-        <v>468.6936525335126</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2161.290763954223</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>1917.951416180123</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>1637.766967680427</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>1356.055500288456</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
     <row r="17">
@@ -5513,34 +5515,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
         <v>4789.842805209199</v>
@@ -5598,19 +5600,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>730.647150085061</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>730.647150085061</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5698,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5768,10 +5770,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5835,10 +5837,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
         <v>412.355951603442</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>2039.376393044857</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>2019.640305074347</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1744.78790124686</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>810.671283034784</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>584.328514724526</v>
       </c>
     </row>
     <row r="23">
@@ -6066,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3114.325629236558</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3959.47027938737</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6306,22 +6308,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.4157547709034</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4157547709034</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>246.0989818976742</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>246.0989818976742</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>1064.78153311813</v>
       </c>
     </row>
     <row r="29">
@@ -6543,25 +6545,25 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0002026854196</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>850.1944999357522</v>
+        <v>929.9842634877775</v>
       </c>
       <c r="C31" t="n">
-        <v>850.1944999357522</v>
+        <v>758.0117003666935</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>594.6949274934642</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>428.4867216463177</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>256.6249474208781</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1540.491264859194</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W31" t="n">
-        <v>1265.638861031707</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="X31" t="n">
-        <v>1265.638861031707</v>
+        <v>1346.493000510101</v>
       </c>
       <c r="Y31" t="n">
-        <v>1039.296092721449</v>
+        <v>1120.150232199843</v>
       </c>
     </row>
     <row r="32">
@@ -6716,10 +6718,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710919</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818557</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291427</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.725292651294</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.872888823807</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.308992269612</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6971,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1013.622061704626</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>841.6494985835419</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>678.3327257103126</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1542.018283751469</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1267.165879923982</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1267.165879923982</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1203.788030416692</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7181,19 +7183,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>4025.820723818557</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3375.975369221655</v>
+        <v>1068.606254915256</v>
       </c>
       <c r="C40" t="n">
-        <v>3204.002806100571</v>
+        <v>896.6336917941717</v>
       </c>
       <c r="D40" t="n">
-        <v>3078.518911370144</v>
+        <v>733.3169189209424</v>
       </c>
       <c r="E40" t="n">
-        <v>3078.518911370144</v>
+        <v>567.1087130737959</v>
       </c>
       <c r="F40" t="n">
-        <v>3078.518911370144</v>
+        <v>395.2469388483563</v>
       </c>
       <c r="G40" t="n">
-        <v>3078.518911370144</v>
+        <v>228.9899691425884</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>4871.796322517327</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>4591.611874017632</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V40" t="n">
-        <v>4309.90040662566</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W40" t="n">
-        <v>4035.048002798173</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X40" t="n">
-        <v>3792.484106243979</v>
+        <v>1485.114991937579</v>
       </c>
       <c r="Y40" t="n">
-        <v>3566.14133793372</v>
+        <v>1258.772223627321</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1047.125586011523</v>
+        <v>1745.709374713349</v>
       </c>
       <c r="C41" t="n">
-        <v>620.2248560248227</v>
+        <v>1318.808644726649</v>
       </c>
       <c r="D41" t="n">
-        <v>352.3169967977481</v>
+        <v>895.5160239116497</v>
       </c>
       <c r="E41" t="n">
-        <v>352.3169967977481</v>
+        <v>780.5035664744435</v>
       </c>
       <c r="F41" t="n">
-        <v>352.3169967977481</v>
+        <v>780.5035664744435</v>
       </c>
       <c r="G41" t="n">
-        <v>352.3169967977481</v>
+        <v>376.1645040638921</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K41" t="n">
-        <v>54.44861827178296</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L41" t="n">
-        <v>244.9404807450223</v>
+        <v>1905.296868083426</v>
       </c>
       <c r="M41" t="n">
-        <v>918.7421318583365</v>
+        <v>1905.296868083426</v>
       </c>
       <c r="N41" t="n">
-        <v>1592.543782971651</v>
+        <v>1905.296868083426</v>
       </c>
       <c r="O41" t="n">
-        <v>1592.543782971651</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="P41" t="n">
-        <v>2266.345434084965</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T41" t="n">
-        <v>2618.063619462288</v>
+        <v>3589.513411814123</v>
       </c>
       <c r="U41" t="n">
-        <v>2618.063619462288</v>
+        <v>3331.158502410535</v>
       </c>
       <c r="V41" t="n">
-        <v>2260.574204588538</v>
+        <v>2973.669087536785</v>
       </c>
       <c r="W41" t="n">
-        <v>1864.182854888885</v>
+        <v>2577.277737837132</v>
       </c>
       <c r="X41" t="n">
-        <v>1452.462856056632</v>
+        <v>2165.557739004879</v>
       </c>
       <c r="Y41" t="n">
-        <v>1047.125586011523</v>
+        <v>2165.557739004879</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="L42" t="n">
-        <v>54.44861827178296</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="M42" t="n">
-        <v>728.2502693850971</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="N42" t="n">
-        <v>1402.051920498411</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>706.6405622171594</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>349.4138044004177</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U43" t="n">
-        <v>2234.861645684911</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.554778200025</v>
+        <v>1283.338841804423</v>
       </c>
       <c r="W43" t="n">
-        <v>1796.702374372538</v>
+        <v>1008.486437976936</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>765.9225414227413</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>539.5797731124834</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1755.743090736225</v>
+        <v>2183.92966041292</v>
       </c>
       <c r="C44" t="n">
-        <v>1328.842360749525</v>
+        <v>1757.02893042622</v>
       </c>
       <c r="D44" t="n">
-        <v>905.5497399345252</v>
+        <v>1333.736309611221</v>
       </c>
       <c r="E44" t="n">
-        <v>479.5728000823827</v>
+        <v>907.7593697590781</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>482.6351879484783</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K44" t="n">
-        <v>417.0520770886785</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L44" t="n">
-        <v>417.0520770886785</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M44" t="n">
-        <v>1090.853728201993</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="N44" t="n">
-        <v>1764.655379315307</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="O44" t="n">
-        <v>1764.655379315307</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="P44" t="n">
-        <v>2438.457030428621</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.430913589148</v>
+        <v>3817.226643281466</v>
       </c>
       <c r="W44" t="n">
-        <v>2722.430913589148</v>
+        <v>3420.835293581812</v>
       </c>
       <c r="X44" t="n">
-        <v>2580.928725072864</v>
+        <v>3009.11529474956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2175.591455027755</v>
+        <v>2603.77802470445</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J45" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K45" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L45" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="M45" t="n">
-        <v>326.146107551374</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="N45" t="n">
-        <v>999.9477586646882</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="O45" t="n">
-        <v>1398.990771989513</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P45" t="n">
-        <v>1398.990771989513</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>1154.649068066185</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>982.6765049451008</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>819.3597320718715</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>653.151526224725</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>481.2897519992854</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>315.0327822935175</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>171.2365138016719</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R46" t="n">
-        <v>2187.823032372085</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S46" t="n">
-        <v>2187.823032372085</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T46" t="n">
-        <v>1944.483684597984</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="U46" t="n">
-        <v>1884.359580727544</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="V46" t="n">
-        <v>1602.648113335573</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.795709508086</v>
+        <v>1813.721701642703</v>
       </c>
       <c r="X46" t="n">
-        <v>1327.795709508086</v>
+        <v>1571.157805088508</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>1344.81503677825</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>544.0372539149087</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>547.9365584046775</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8060,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>297.9732317841942</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8073,10 +8075,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>549.2245073196783</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>653.999842365092</v>
       </c>
       <c r="M5" t="n">
-        <v>690.5396891392526</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,19 +8300,19 @@
         <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>572.4151401474173</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>274.9029931187156</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8453,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O8" t="n">
-        <v>690.4993855958451</v>
+        <v>293.4997358206232</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8532,25 +8534,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>783.0169950311082</v>
       </c>
       <c r="O9" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>285.528735950186</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>111.9842925248821</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>703.1228151115166</v>
+        <v>844.0764819672688</v>
       </c>
       <c r="M12" t="n">
-        <v>488.8385263243295</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8930,22 +8932,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>680.6034048714557</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O14" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9003,25 +9005,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>198.5228364460678</v>
       </c>
       <c r="N15" t="n">
-        <v>129.7950776979732</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,22 +9248,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>657.2064368952725</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>1003.048909524252</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9714,13 +9716,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>227.4584616419597</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>426.8993572042261</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9729,16 +9731,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9884,16 +9886,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>744.2217369616194</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9954,25 +9956,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>60.75701611917185</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10191,28 +10193,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>475.2939470053066</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,28 +10664,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10829,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>230.7280651328647</v>
+        <v>794.7655532943445</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11139,25 +11141,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>488.9136355342238</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>708.510735401115</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>204.2232082193703</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1001.798349736415</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>426.245640555379</v>
+        <v>871.4275231047103</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>218.6458458401968</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>236.3231201704202</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23425,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>47.65704049113037</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>179.1357142781535</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23662,16 +23664,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>259.3556256272465</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>20.53473220669966</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.20363605725684</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>119.4952797838161</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.053732167105437</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>11.81538833381109</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>63.52994056050431</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>59.6423673431228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3352696149376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>37.45454936137475</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>115.7088052046616</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>153.8309139720459</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>307.8548375907869</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>66.44073542471749</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -25922,13 +25924,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>257.3106834462786</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>267.5156322128094</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6.759898196019307</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>217.8597411829625</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>722781.0417716356</v>
+        <v>718860.7878600016</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>722781.0417716356</v>
+        <v>732176.4778666728</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722781.0417716356</v>
+        <v>732176.4778666728</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481675.8869923078</v>
+        <v>599270.80935911</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481675.8869923078</v>
+        <v>599270.80935911</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>717650.1772784368</v>
+        <v>717650.1772784367</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>717650.1772784368</v>
+        <v>717650.1772784367</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>717650.177278437</v>
+        <v>717650.1772784367</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>717650.177278437</v>
+        <v>717650.1772784368</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481675.8869923078</v>
+        <v>599270.8093591101</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481675.8869923077</v>
+        <v>599270.80935911</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>334904.5341064188</v>
+      </c>
+      <c r="C2" t="n">
         <v>334904.5341064189</v>
-      </c>
-      <c r="C2" t="n">
-        <v>334904.5341064187</v>
       </c>
       <c r="D2" t="n">
         <v>334904.5341064188</v>
       </c>
       <c r="E2" t="n">
-        <v>216916.905171854</v>
+        <v>269865.5899431432</v>
       </c>
       <c r="F2" t="n">
-        <v>216916.905171854</v>
+        <v>269865.5899431431</v>
       </c>
       <c r="G2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040324</v>
       </c>
       <c r="H2" t="n">
         <v>323167.4818040322</v>
       </c>
       <c r="I2" t="n">
-        <v>323167.4818040324</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="J2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="K2" t="n">
         <v>323167.4818040322</v>
@@ -26344,16 +26346,16 @@
         <v>323167.4818040322</v>
       </c>
       <c r="M2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="N2" t="n">
         <v>323167.4818040323</v>
       </c>
       <c r="O2" t="n">
-        <v>216916.9051718539</v>
+        <v>269865.5899431433</v>
       </c>
       <c r="P2" t="n">
-        <v>216916.905171854</v>
+        <v>269865.5899431431</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>136488.8862029676</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>82248.0704471725</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>108731.2256621307</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156047.2142134704</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="C4" t="n">
-        <v>156047.2142134704</v>
+        <v>113024.6845245588</v>
       </c>
       <c r="D4" t="n">
-        <v>156047.2142134704</v>
+        <v>113024.6845245588</v>
       </c>
       <c r="E4" t="n">
-        <v>38928.16391746106</v>
+        <v>48464.53155392381</v>
       </c>
       <c r="F4" t="n">
-        <v>38928.16391746107</v>
+        <v>48464.53155392381</v>
       </c>
       <c r="G4" t="n">
         <v>58064.51385187964</v>
@@ -26445,7 +26447,7 @@
         <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
         <v>58064.51385187964</v>
@@ -26454,10 +26456,10 @@
         <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>38928.16391746107</v>
+        <v>48464.53155392381</v>
       </c>
       <c r="P4" t="n">
-        <v>38928.16391746107</v>
+        <v>48464.53155392381</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.6554088245</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.6554088245</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.0554088245</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124238.5337572906</v>
+        <v>-92944.85262492439</v>
       </c>
       <c r="C6" t="n">
-        <v>103848.7700063933</v>
+        <v>-7741.692029931961</v>
       </c>
       <c r="D6" t="n">
-        <v>103848.7700063934</v>
+        <v>128747.1941730356</v>
       </c>
       <c r="E6" t="n">
-        <v>136607.7913678379</v>
+        <v>161896.002980395</v>
       </c>
       <c r="F6" t="n">
-        <v>136607.7913678378</v>
+        <v>161896.0029803948</v>
       </c>
       <c r="G6" t="n">
-        <v>23401.7849535369</v>
+        <v>105104.8353165506</v>
       </c>
       <c r="H6" t="n">
+        <v>187352.9057637229</v>
+      </c>
+      <c r="I6" t="n">
+        <v>187352.905763723</v>
+      </c>
+      <c r="J6" t="n">
+        <v>41819.23582890636</v>
+      </c>
+      <c r="K6" t="n">
+        <v>78621.68010159222</v>
+      </c>
+      <c r="L6" t="n">
         <v>187352.9057637228</v>
       </c>
-      <c r="I6" t="n">
-        <v>187352.9057637231</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9275.97727494323</v>
-      </c>
-      <c r="K6" t="n">
-        <v>187352.9057637229</v>
-      </c>
-      <c r="L6" t="n">
-        <v>187352.9057637229</v>
-      </c>
       <c r="M6" t="n">
-        <v>187352.905763723</v>
+        <v>187352.9057637228</v>
       </c>
       <c r="N6" t="n">
         <v>187352.905763723</v>
       </c>
       <c r="O6" t="n">
-        <v>136607.7913678378</v>
+        <v>161896.002980395</v>
       </c>
       <c r="P6" t="n">
-        <v>136607.7913678378</v>
+        <v>161896.0029803948</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>422.4737561084931</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.0823483487695</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084932</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084931</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.0823483487695</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>302.3592065432186</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>59.54045732377733</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27430,10 +27432,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>113.008962604416</v>
+        <v>91.97701519844234</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>336.1573811915252</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>162.7009987399606</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27676,7 +27678,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>18.44967133088753</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27822,13 +27824,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>63.52994056050434</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>257.3106834462779</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.08502400918753</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>160.2240614002184</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>106.2105945228212</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>506.7576310804627</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>275.4581450699646</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>615.6877999324691</v>
       </c>
       <c r="M5" t="n">
-        <v>653.1084262398208</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>549.9000534331877</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>251.8062126063877</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O8" t="n">
-        <v>653.1084262398209</v>
+        <v>256.1087764645991</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="O9" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.1087764645995</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>73.67225009225919</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>680.607728397287</v>
+        <v>821.5613952530392</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35650,22 +35652,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>643.172141972024</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O14" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>175.4260559337399</v>
       </c>
       <c r="N15" t="n">
-        <v>108.4520494844315</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>981.7058813107108</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>205.0592278086264</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36604,16 +36606,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>706.646375151388</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.1971664929786</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>192.4160227002418</v>
+        <v>756.4535108617216</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>465.7417458120016</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>671.1197760450909</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>168.0985336147722</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>403.0737508331568</v>
+        <v>848.2556333824881</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>855677.247121259</v>
+        <v>854766.35157306</v>
       </c>
     </row>
     <row r="7">
@@ -661,16 +661,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>361.3324826687164</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -718,16 +718,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>395.4014830932115</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>78.2758222914308</v>
+        <v>143.3577956043861</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.49249945708952</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -907,7 +907,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>188.0391799865595</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>4.378995526348206</v>
       </c>
       <c r="C7" t="n">
-        <v>151.8031661589856</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1147,10 +1147,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>142.9849883401679</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>384.4556977061208</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1302,16 +1302,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>171.1720094918776</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1372,25 +1372,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>203.985876846636</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>142.9849883401675</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1609,25 +1609,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>374.9746821957025</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1672,10 +1672,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0.9149576920528579</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1861,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>51.58543740429417</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>219.6035253819533</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>50.75755770605702</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2724,7 +2724,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2775,10 +2775,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0.670782963737995</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>123.0673923170405</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>152.7790116748991</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3009,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>26.6495006022655</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>75.00592320820328</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>113.8623328628341</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>98.15366458399269</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3991,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>52.66987230781636</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>96.60383727873445</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4045,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>92.01098438110748</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1316.805947015338</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C2" t="n">
-        <v>889.9052170286379</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D2" t="n">
-        <v>466.6125962136382</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E2" t="n">
-        <v>444.6760604018998</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
         <v>79.69375467592363</v>
@@ -4336,22 +4336,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N2" t="n">
-        <v>595.1637600336857</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4366,16 +4366,16 @@
         <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>1745.630772103422</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>1745.630772103422</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X2" t="n">
-        <v>1333.910773271169</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y2" t="n">
-        <v>1332.613907266464</v>
+        <v>180.6345712298752</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L3" t="n">
-        <v>866.8612493132769</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M3" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N3" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O3" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P3" t="n">
         <v>1389.040378766978</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.7432593109778</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="C4" t="n">
-        <v>379.6767721479164</v>
+        <v>540.2801734753912</v>
       </c>
       <c r="D4" t="n">
-        <v>216.3599992746871</v>
+        <v>376.9634006021619</v>
       </c>
       <c r="E4" t="n">
-        <v>216.3599992746871</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924753</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G4" t="n">
         <v>44.49822504924753</v>
@@ -4533,7 +4533,7 @@
         <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109778</v>
+        <v>685.0860276212358</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2516.694910195414</v>
+        <v>2281.509294027804</v>
       </c>
       <c r="C5" t="n">
-        <v>2089.794180208714</v>
+        <v>1854.608564041104</v>
       </c>
       <c r="D5" t="n">
-        <v>1666.501559393715</v>
+        <v>1431.315943226104</v>
       </c>
       <c r="E5" t="n">
-        <v>1240.524619541572</v>
+        <v>1005.339003373962</v>
       </c>
       <c r="F5" t="n">
         <v>815.4004377309723</v>
@@ -4573,16 +4573,16 @@
         <v>793.804433513426</v>
       </c>
       <c r="L5" t="n">
-        <v>1403.33535544657</v>
+        <v>793.804433513426</v>
       </c>
       <c r="M5" t="n">
-        <v>2372.249908978417</v>
+        <v>818.8259796696768</v>
       </c>
       <c r="N5" t="n">
-        <v>3341.164462510263</v>
+        <v>1787.740533201523</v>
       </c>
       <c r="O5" t="n">
-        <v>3341.164462510263</v>
+        <v>2632.885183352335</v>
       </c>
       <c r="P5" t="n">
         <v>3341.164462510263</v>
@@ -4594,25 +4594,25 @@
         <v>3914.806276896349</v>
       </c>
       <c r="S5" t="n">
-        <v>3810.438982769489</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T5" t="n">
-        <v>3810.438982769489</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U5" t="n">
-        <v>3810.438982769489</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="V5" t="n">
-        <v>3810.438982769489</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="W5" t="n">
-        <v>3414.047633069837</v>
+        <v>3518.414927196696</v>
       </c>
       <c r="X5" t="n">
-        <v>3002.327634237584</v>
+        <v>3106.694928364444</v>
       </c>
       <c r="Y5" t="n">
-        <v>2596.990364192474</v>
+        <v>2701.357658319334</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>78.29612553792698</v>
       </c>
       <c r="I6" t="n">
-        <v>78.29612553792698</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J6" t="n">
-        <v>78.29612553792698</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="K6" t="n">
-        <v>668.7810521062665</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="L6" t="n">
-        <v>668.7810521062665</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="M6" t="n">
-        <v>918.0692025865903</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="N6" t="n">
-        <v>1886.983756118437</v>
+        <v>624.6212521324562</v>
       </c>
       <c r="O6" t="n">
-        <v>1886.983756118437</v>
+        <v>624.6212521324562</v>
       </c>
       <c r="P6" t="n">
-        <v>1886.983756118437</v>
+        <v>1340.818969170954</v>
       </c>
       <c r="Q6" t="n">
-        <v>1886.983756118437</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="R6" t="n">
         <v>1886.983756118437</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043.072648155079</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="C7" t="n">
-        <v>889.7361166813558</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="D7" t="n">
-        <v>726.4193438081265</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="E7" t="n">
-        <v>560.2111379609801</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="F7" t="n">
-        <v>388.3493637355405</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G7" t="n">
-        <v>222.0923940297726</v>
+        <v>321.8609622894966</v>
       </c>
       <c r="H7" t="n">
-        <v>78.29612553792698</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I7" t="n">
         <v>78.29612553792698</v>
@@ -4749,28 +4749,28 @@
         <v>2258.709152951055</v>
       </c>
       <c r="R7" t="n">
-        <v>2258.709152951055</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S7" t="n">
-        <v>2258.709152951055</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T7" t="n">
-        <v>2258.709152951055</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U7" t="n">
-        <v>2258.709152951055</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V7" t="n">
-        <v>1976.997685559084</v>
+        <v>1236.300228491596</v>
       </c>
       <c r="W7" t="n">
-        <v>1702.145281731597</v>
+        <v>961.4478246641095</v>
       </c>
       <c r="X7" t="n">
-        <v>1459.581385177402</v>
+        <v>718.8839281099146</v>
       </c>
       <c r="Y7" t="n">
-        <v>1233.238616867144</v>
+        <v>492.5411597996566</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1924.019879154054</v>
+        <v>2077.757634898481</v>
       </c>
       <c r="C8" t="n">
-        <v>1497.119149167354</v>
+        <v>1650.856904911781</v>
       </c>
       <c r="D8" t="n">
-        <v>1073.826528352354</v>
+        <v>1631.604688137186</v>
       </c>
       <c r="E8" t="n">
-        <v>647.8495885002116</v>
+        <v>1205.627748285043</v>
       </c>
       <c r="F8" t="n">
-        <v>222.7254066896118</v>
+        <v>780.5035664744435</v>
       </c>
       <c r="G8" t="n">
-        <v>78.29612553792698</v>
+        <v>376.1645040638921</v>
       </c>
       <c r="H8" t="n">
         <v>78.29612553792698</v>
@@ -4810,22 +4810,22 @@
         <v>793.804433513426</v>
       </c>
       <c r="L8" t="n">
-        <v>1723.429481132703</v>
+        <v>793.804433513426</v>
       </c>
       <c r="M8" t="n">
-        <v>2692.344034664549</v>
+        <v>1762.718987045273</v>
       </c>
       <c r="N8" t="n">
-        <v>3661.258588196396</v>
+        <v>2731.633540577119</v>
       </c>
       <c r="O8" t="n">
-        <v>3914.806276896349</v>
+        <v>2731.633540577119</v>
       </c>
       <c r="P8" t="n">
-        <v>3914.806276896349</v>
+        <v>3439.912819735046</v>
       </c>
       <c r="Q8" t="n">
-        <v>3914.806276896349</v>
+        <v>3895.99829923923</v>
       </c>
       <c r="R8" t="n">
         <v>3914.806276896349</v>
@@ -4837,19 +4837,19 @@
         <v>3914.806276896349</v>
       </c>
       <c r="U8" t="n">
-        <v>3914.806276896349</v>
+        <v>3656.451367492761</v>
       </c>
       <c r="V8" t="n">
-        <v>3557.316862022599</v>
+        <v>3298.961952619011</v>
       </c>
       <c r="W8" t="n">
-        <v>3160.925512322946</v>
+        <v>2910.62286402697</v>
       </c>
       <c r="X8" t="n">
-        <v>2749.205513490693</v>
+        <v>2498.902865194717</v>
       </c>
       <c r="Y8" t="n">
-        <v>2343.868243445584</v>
+        <v>2093.565595149607</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>78.29612553792698</v>
       </c>
       <c r="K9" t="n">
-        <v>668.7810521062665</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L9" t="n">
-        <v>668.7810521062665</v>
+        <v>915.0949336208331</v>
       </c>
       <c r="M9" t="n">
-        <v>668.7810521062665</v>
+        <v>915.0949336208331</v>
       </c>
       <c r="N9" t="n">
-        <v>1422.838279255657</v>
+        <v>915.0949336208331</v>
       </c>
       <c r="O9" t="n">
-        <v>1422.838279255657</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="P9" t="n">
-        <v>1422.838279255657</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q9" t="n">
         <v>1886.983756118437</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2235.890791324681</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C10" t="n">
-        <v>2063.918228203597</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D10" t="n">
-        <v>1900.601455330367</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E10" t="n">
-        <v>1734.393249483221</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F10" t="n">
-        <v>1734.393249483221</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G10" t="n">
-        <v>1734.393249483221</v>
+        <v>321.8609622894966</v>
       </c>
       <c r="H10" t="n">
-        <v>1734.393249483221</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I10" t="n">
-        <v>1734.393249483221</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J10" t="n">
-        <v>1791.884577707379</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K10" t="n">
-        <v>2018.412178913216</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L10" t="n">
-        <v>2373.101500207637</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M10" t="n">
-        <v>2764.287295177888</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N10" t="n">
-        <v>3141.778806053923</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O10" t="n">
-        <v>3497.206934733686</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P10" t="n">
-        <v>3787.806146655587</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q10" t="n">
-        <v>3914.806276896349</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R10" t="n">
-        <v>3867.767663583522</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S10" t="n">
-        <v>3867.767663583522</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T10" t="n">
-        <v>3624.428315809422</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="U10" t="n">
-        <v>3451.527296120657</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="V10" t="n">
-        <v>3169.815828728686</v>
+        <v>2095.402285466169</v>
       </c>
       <c r="W10" t="n">
-        <v>2894.963424901199</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X10" t="n">
-        <v>2652.399528347004</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y10" t="n">
-        <v>2426.056760036746</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1444.739398795099</v>
+        <v>1779.590598002369</v>
       </c>
       <c r="C11" t="n">
-        <v>1238.693058545972</v>
+        <v>1352.689868015669</v>
       </c>
       <c r="D11" t="n">
-        <v>815.4004377309723</v>
+        <v>929.3972472006692</v>
       </c>
       <c r="E11" t="n">
-        <v>815.4004377309723</v>
+        <v>503.4203073485268</v>
       </c>
       <c r="F11" t="n">
-        <v>815.4004377309723</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G11" t="n">
-        <v>411.061375320421</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H11" t="n">
-        <v>113.1929967944558</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I11" t="n">
         <v>78.29612553792698</v>
       </c>
       <c r="J11" t="n">
-        <v>331.8438142378805</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K11" t="n">
-        <v>1047.35212221338</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L11" t="n">
-        <v>1976.977169832656</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M11" t="n">
-        <v>2945.891723364502</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="N11" t="n">
-        <v>3914.806276896349</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="O11" t="n">
-        <v>3914.806276896349</v>
+        <v>2931.17759010041</v>
       </c>
       <c r="P11" t="n">
-        <v>3914.806276896349</v>
+        <v>3639.456869258338</v>
       </c>
       <c r="Q11" t="n">
         <v>3914.806276896349</v>
@@ -5071,22 +5071,22 @@
         <v>3914.806276896349</v>
       </c>
       <c r="T11" t="n">
-        <v>3693.880705940982</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U11" t="n">
-        <v>3435.525796537395</v>
+        <v>3770.376995744665</v>
       </c>
       <c r="V11" t="n">
-        <v>3078.036381663645</v>
+        <v>3412.887580870914</v>
       </c>
       <c r="W11" t="n">
-        <v>2681.645031963992</v>
+        <v>3016.496231171261</v>
       </c>
       <c r="X11" t="n">
-        <v>2269.925033131739</v>
+        <v>2604.776232339008</v>
       </c>
       <c r="Y11" t="n">
-        <v>1864.587763086629</v>
+        <v>2199.438962293899</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>357.4402577794299</v>
       </c>
       <c r="K12" t="n">
-        <v>357.4402577794299</v>
+        <v>533.3570012441858</v>
       </c>
       <c r="L12" t="n">
-        <v>1170.786039079939</v>
+        <v>533.3570012441858</v>
       </c>
       <c r="M12" t="n">
-        <v>1170.786039079939</v>
+        <v>533.3570012441858</v>
       </c>
       <c r="N12" t="n">
-        <v>1170.786039079939</v>
+        <v>533.3570012441858</v>
       </c>
       <c r="O12" t="n">
-        <v>1170.786039079939</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="P12" t="n">
-        <v>1886.983756118437</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="Q12" t="n">
         <v>1886.983756118437</v>
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1340.37210466824</v>
+        <v>2481.798038938885</v>
       </c>
       <c r="C14" t="n">
-        <v>961.6097994200553</v>
+        <v>2054.897308952186</v>
       </c>
       <c r="D14" t="n">
-        <v>538.3171786050556</v>
+        <v>1631.604688137186</v>
       </c>
       <c r="E14" t="n">
-        <v>538.3171786050556</v>
+        <v>1205.627748285043</v>
       </c>
       <c r="F14" t="n">
-        <v>113.1929967944558</v>
+        <v>780.5035664744435</v>
       </c>
       <c r="G14" t="n">
-        <v>113.1929967944558</v>
+        <v>376.1645040638921</v>
       </c>
       <c r="H14" t="n">
-        <v>113.1929967944558</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I14" t="n">
         <v>78.29612553792698</v>
       </c>
       <c r="J14" t="n">
-        <v>78.29612553792698</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K14" t="n">
-        <v>78.29612553792698</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L14" t="n">
-        <v>1007.921173157204</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M14" t="n">
-        <v>1644.661593709507</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="N14" t="n">
-        <v>2613.576147241354</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="O14" t="n">
-        <v>3458.720797392166</v>
+        <v>2931.17759010041</v>
       </c>
       <c r="P14" t="n">
-        <v>3458.720797392166</v>
+        <v>3639.456869258338</v>
       </c>
       <c r="Q14" t="n">
         <v>3914.806276896349</v>
@@ -5305,25 +5305,25 @@
         <v>3914.806276896349</v>
       </c>
       <c r="S14" t="n">
-        <v>3810.438982769489</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T14" t="n">
-        <v>3589.513411814123</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U14" t="n">
-        <v>3331.158502410535</v>
+        <v>3656.451367492761</v>
       </c>
       <c r="V14" t="n">
-        <v>2973.669087536785</v>
+        <v>3298.961952619011</v>
       </c>
       <c r="W14" t="n">
-        <v>2577.277737837132</v>
+        <v>2902.570602919358</v>
       </c>
       <c r="X14" t="n">
-        <v>2165.557739004879</v>
+        <v>2901.646403230416</v>
       </c>
       <c r="Y14" t="n">
-        <v>1760.22046895977</v>
+        <v>2901.646403230416</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>78.29612553792698</v>
       </c>
       <c r="I15" t="n">
-        <v>78.29612553792698</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J15" t="n">
-        <v>78.29612553792698</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="K15" t="n">
-        <v>78.29612553792698</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="L15" t="n">
-        <v>915.0949336208331</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="M15" t="n">
-        <v>1088.766728995236</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="N15" t="n">
         <v>1088.766728995236</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>422.1304628844506</v>
+        <v>349.4138044004177</v>
       </c>
       <c r="C16" t="n">
         <v>250.1578997633666</v>
@@ -5463,25 +5463,25 @@
         <v>2258.709152951055</v>
       </c>
       <c r="S16" t="n">
-        <v>2161.290763954223</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T16" t="n">
-        <v>1917.951416180123</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U16" t="n">
-        <v>1637.766967680427</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V16" t="n">
-        <v>1356.055500288456</v>
+        <v>1283.338841804423</v>
       </c>
       <c r="W16" t="n">
-        <v>1081.203096460969</v>
+        <v>1008.486437976936</v>
       </c>
       <c r="X16" t="n">
-        <v>838.6391999067741</v>
+        <v>765.9225414227413</v>
       </c>
       <c r="Y16" t="n">
-        <v>612.2964315965162</v>
+        <v>539.5797731124834</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3012.464920930865</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>3857.609571081677</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4565.888850239604</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>810.671283034784</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.328514724526</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>964.4851292537592</v>
+        <v>390.8583291475138</v>
       </c>
       <c r="L24" t="n">
-        <v>1364.825557038856</v>
+        <v>390.8583291475138</v>
       </c>
       <c r="M24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6244,10 +6244,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>730.647150085061</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>730.647150085061</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>730.647150085061</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1064.78153311813</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F28" t="n">
         <v>512.1245198631661</v>
@@ -6423,13 +6423,13 @@
         <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1307.345429672325</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.78153311813</v>
+        <v>1031.815467295608</v>
       </c>
       <c r="Y28" t="n">
-        <v>1064.78153311813</v>
+        <v>1031.815467295608</v>
       </c>
     </row>
     <row r="29">
@@ -6560,10 +6560,10 @@
         <v>964.4851292537592</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.9842634877775</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>758.0117003666935</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D31" t="n">
-        <v>594.6949274934642</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E31" t="n">
-        <v>428.4867216463177</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F31" t="n">
-        <v>256.6249474208781</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1589.056897064296</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1589.056897064296</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1346.493000510101</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>1120.150232199843</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
         <v>1364.825557038856</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
         <v>1446.844867123559</v>
@@ -7183,19 +7183,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7250,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1068.606254915256</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>896.6336917941717</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>733.3169189209424</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E40" t="n">
-        <v>567.1087130737959</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F40" t="n">
-        <v>395.2469388483563</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>228.9899691425884</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>2002.531292319261</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1727.678888491774</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1485.114991937579</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>1258.772223627321</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1745.709374713349</v>
+        <v>2165.557739004879</v>
       </c>
       <c r="C41" t="n">
-        <v>1318.808644726649</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="D41" t="n">
-        <v>895.5160239116497</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E41" t="n">
-        <v>780.5035664744435</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F41" t="n">
-        <v>780.5035664744435</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G41" t="n">
-        <v>376.1645040638921</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H41" t="n">
-        <v>78.29612553792698</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I41" t="n">
         <v>78.29612553792698</v>
@@ -7417,13 +7417,13 @@
         <v>1156.407892330322</v>
       </c>
       <c r="L41" t="n">
-        <v>1905.296868083426</v>
+        <v>1781.526964702392</v>
       </c>
       <c r="M41" t="n">
-        <v>1905.296868083426</v>
+        <v>1781.526964702392</v>
       </c>
       <c r="N41" t="n">
-        <v>1905.296868083426</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="O41" t="n">
         <v>2750.441518234238</v>
@@ -7487,25 +7487,25 @@
         <v>78.29612553792698</v>
       </c>
       <c r="I42" t="n">
-        <v>78.29612553792698</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J42" t="n">
-        <v>78.29612553792698</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="K42" t="n">
-        <v>668.7810521062665</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="L42" t="n">
-        <v>668.7810521062665</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="M42" t="n">
-        <v>668.7810521062665</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="N42" t="n">
-        <v>668.7810521062665</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="O42" t="n">
-        <v>706.6405622171594</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="P42" t="n">
         <v>1422.838279255657</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>349.4138044004177</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C43" t="n">
-        <v>177.4412412793338</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D43" t="n">
-        <v>177.4412412793338</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E43" t="n">
-        <v>177.4412412793338</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F43" t="n">
-        <v>177.4412412793338</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G43" t="n">
         <v>78.29612553792698</v>
@@ -7596,25 +7596,25 @@
         <v>2258.709152951055</v>
       </c>
       <c r="S43" t="n">
-        <v>2088.57410547019</v>
+        <v>2161.290763954223</v>
       </c>
       <c r="T43" t="n">
-        <v>1845.23475769609</v>
+        <v>1917.951416180123</v>
       </c>
       <c r="U43" t="n">
-        <v>1565.050309196394</v>
+        <v>1637.766967680427</v>
       </c>
       <c r="V43" t="n">
-        <v>1283.338841804423</v>
+        <v>1356.055500288456</v>
       </c>
       <c r="W43" t="n">
-        <v>1008.486437976936</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X43" t="n">
-        <v>765.9225414227413</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y43" t="n">
-        <v>539.5797731124834</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2183.92966041292</v>
+        <v>2165.557739004879</v>
       </c>
       <c r="C44" t="n">
-        <v>1757.02893042622</v>
+        <v>1738.657009018179</v>
       </c>
       <c r="D44" t="n">
-        <v>1333.736309611221</v>
+        <v>1315.36438820318</v>
       </c>
       <c r="E44" t="n">
-        <v>907.7593697590781</v>
+        <v>889.3874483510373</v>
       </c>
       <c r="F44" t="n">
-        <v>482.6351879484783</v>
+        <v>464.2632665404375</v>
       </c>
       <c r="G44" t="n">
-        <v>78.29612553792698</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H44" t="n">
-        <v>78.29612553792698</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I44" t="n">
         <v>78.29612553792698</v>
       </c>
       <c r="J44" t="n">
-        <v>440.8995843548225</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K44" t="n">
-        <v>1156.407892330322</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L44" t="n">
-        <v>2086.032939949598</v>
+        <v>1007.921173157204</v>
       </c>
       <c r="M44" t="n">
-        <v>2086.032939949598</v>
+        <v>1976.83572668905</v>
       </c>
       <c r="N44" t="n">
-        <v>2086.032939949598</v>
+        <v>2945.750280220896</v>
       </c>
       <c r="O44" t="n">
-        <v>2750.441518234238</v>
+        <v>3790.894930371709</v>
       </c>
       <c r="P44" t="n">
-        <v>3458.720797392166</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="Q44" t="n">
-        <v>3914.806276896349</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="R44" t="n">
         <v>3914.806276896349</v>
       </c>
       <c r="S44" t="n">
-        <v>3914.806276896349</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T44" t="n">
-        <v>3914.806276896349</v>
+        <v>3589.513411814123</v>
       </c>
       <c r="U44" t="n">
-        <v>3914.806276896349</v>
+        <v>3331.158502410535</v>
       </c>
       <c r="V44" t="n">
-        <v>3817.226643281466</v>
+        <v>2973.669087536785</v>
       </c>
       <c r="W44" t="n">
-        <v>3420.835293581812</v>
+        <v>2577.277737837132</v>
       </c>
       <c r="X44" t="n">
-        <v>3009.11529474956</v>
+        <v>2165.557739004879</v>
       </c>
       <c r="Y44" t="n">
-        <v>2603.77802470445</v>
+        <v>2165.557739004879</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>78.29612553792698</v>
       </c>
       <c r="I45" t="n">
-        <v>78.29612553792698</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J45" t="n">
-        <v>78.29612553792698</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="K45" t="n">
-        <v>78.29612553792698</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="L45" t="n">
-        <v>78.29612553792698</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="M45" t="n">
-        <v>1047.210679069774</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="N45" t="n">
-        <v>1047.210679069774</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="O45" t="n">
-        <v>1886.983756118437</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="P45" t="n">
-        <v>1886.983756118437</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="Q45" t="n">
         <v>1886.983756118437</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1154.649068066185</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C46" t="n">
-        <v>982.6765049451008</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D46" t="n">
-        <v>819.3597320718715</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E46" t="n">
-        <v>653.151526224725</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F46" t="n">
-        <v>481.2897519992854</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G46" t="n">
-        <v>315.0327822935175</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H46" t="n">
-        <v>171.2365138016719</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I46" t="n">
         <v>78.29612553792698</v>
@@ -7833,25 +7833,25 @@
         <v>2258.709152951055</v>
       </c>
       <c r="S46" t="n">
-        <v>2088.57410547019</v>
+        <v>2161.290763954223</v>
       </c>
       <c r="T46" t="n">
-        <v>2088.57410547019</v>
+        <v>1917.951416180123</v>
       </c>
       <c r="U46" t="n">
-        <v>2088.57410547019</v>
+        <v>1637.766967680427</v>
       </c>
       <c r="V46" t="n">
-        <v>2088.57410547019</v>
+        <v>1356.055500288456</v>
       </c>
       <c r="W46" t="n">
-        <v>1813.721701642703</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X46" t="n">
-        <v>1571.157805088508</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y46" t="n">
-        <v>1344.81503677825</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>111.3736009736648</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>547.9365584046775</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258255</v>
@@ -8002,7 +8002,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>268.0669951958121</v>
       </c>
       <c r="L3" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,7 +8075,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>549.2245073196783</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8221,19 +8221,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>653.999842365092</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>1016.132832123519</v>
+        <v>62.70555194614978</v>
       </c>
       <c r="N5" t="n">
         <v>1015.981192058533</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>274.9029931187156</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>1000.044597437629</v>
+        <v>291.2228204893258</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>1016.132832123519</v>
@@ -8467,16 +8467,16 @@
         <v>1015.981192058533</v>
       </c>
       <c r="O8" t="n">
-        <v>293.4997358206232</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>54.03060712421001</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>783.0169950311082</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.528735950186</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,19 +8698,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1016.132832123519</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1015.981192058533</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>314.2553893904679</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8771,10 +8771,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>200.0929141007635</v>
       </c>
       <c r="L12" t="n">
-        <v>844.0764819672688</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>680.6034048714557</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1015.981192058533</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>314.2553893904679</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>198.5228364460678</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>760.0566355022343</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9251,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>779.697912545697</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>31.90578282341655</v>
       </c>
       <c r="L24" t="n">
-        <v>426.8993572042261</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9740,7 +9740,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>60.75701611917185</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9971,10 +9971,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10208,13 +10208,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>426.1551116948253</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
@@ -10445,7 +10445,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>426.1551116948253</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>509.0028996591719</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10831,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>56.96224792398087</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,13 +10916,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>657.8632399032651</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11065,16 +11065,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>794.7655532943445</v>
+        <v>669.7454488690574</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
@@ -11153,10 +11153,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O44" t="n">
-        <v>708.510735401115</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>43.99456548976437</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1001.798349736415</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>871.4275231047103</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>218.6458458401968</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>112.7863719693843</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>47.65704049113037</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>406.6878411518774</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23703,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>118.557719078891</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.53473220669966</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>119.4952797838161</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>239.4674746249149</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>38.61621282745648</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>11.81538833381109</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.52994056050431</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>63.52994056050431</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>115.7088052046616</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>347.6257994786296</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>307.8548375907869</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>66.44073542471749</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>347.6257994786295</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>257.3106834462786</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>6.759898196019307</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>599270.80935911</v>
+        <v>599270.8093591098</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>717650.1772784367</v>
+        <v>717650.1772784368</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>717650.1772784367</v>
+        <v>717650.1772784368</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>717650.1772784367</v>
+        <v>717650.177278437</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>717650.1772784368</v>
+        <v>717650.177278437</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717650.177278437</v>
+        <v>717650.1772784368</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>599270.80935911</v>
+        <v>599270.8093591101</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>334904.5341064188</v>
       </c>
       <c r="C2" t="n">
-        <v>334904.5341064189</v>
+        <v>334904.5341064188</v>
       </c>
       <c r="D2" t="n">
-        <v>334904.5341064188</v>
+        <v>334904.5341064187</v>
       </c>
       <c r="E2" t="n">
         <v>269865.5899431432</v>
@@ -26328,7 +26328,7 @@
         <v>269865.5899431431</v>
       </c>
       <c r="G2" t="n">
-        <v>323167.4818040324</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="H2" t="n">
         <v>323167.4818040322</v>
@@ -26346,13 +26346,13 @@
         <v>323167.4818040322</v>
       </c>
       <c r="M2" t="n">
+        <v>323167.4818040323</v>
+      </c>
+      <c r="N2" t="n">
         <v>323167.4818040322</v>
       </c>
-      <c r="N2" t="n">
-        <v>323167.4818040323</v>
-      </c>
       <c r="O2" t="n">
-        <v>269865.5899431433</v>
+        <v>269865.5899431432</v>
       </c>
       <c r="P2" t="n">
         <v>269865.5899431431</v>
@@ -26426,13 +26426,13 @@
         <v>113024.6845245588</v>
       </c>
       <c r="E4" t="n">
-        <v>48464.53155392381</v>
+        <v>48464.53155392382</v>
       </c>
       <c r="F4" t="n">
         <v>48464.53155392381</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187964</v>
@@ -26459,7 +26459,7 @@
         <v>48464.53155392381</v>
       </c>
       <c r="P4" t="n">
-        <v>48464.53155392381</v>
+        <v>48464.53155392382</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92944.85262492439</v>
+        <v>-92944.85262492433</v>
       </c>
       <c r="C6" t="n">
-        <v>-7741.692029931961</v>
+        <v>-7741.692029932092</v>
       </c>
       <c r="D6" t="n">
-        <v>128747.1941730356</v>
+        <v>128747.1941730354</v>
       </c>
       <c r="E6" t="n">
-        <v>161896.002980395</v>
+        <v>161613.2249622937</v>
       </c>
       <c r="F6" t="n">
-        <v>161896.0029803948</v>
+        <v>161613.2249622936</v>
       </c>
       <c r="G6" t="n">
-        <v>105104.8353165506</v>
+        <v>105053.804654366</v>
       </c>
       <c r="H6" t="n">
-        <v>187352.9057637229</v>
+        <v>187301.8751015386</v>
       </c>
       <c r="I6" t="n">
-        <v>187352.905763723</v>
+        <v>187301.8751015387</v>
       </c>
       <c r="J6" t="n">
-        <v>41819.23582890636</v>
+        <v>41768.20516672209</v>
       </c>
       <c r="K6" t="n">
-        <v>78621.68010159222</v>
+        <v>78570.64943940788</v>
       </c>
       <c r="L6" t="n">
-        <v>187352.9057637228</v>
+        <v>187301.8751015386</v>
       </c>
       <c r="M6" t="n">
-        <v>187352.9057637228</v>
+        <v>187301.8751015387</v>
       </c>
       <c r="N6" t="n">
-        <v>187352.905763723</v>
+        <v>187301.8751015386</v>
       </c>
       <c r="O6" t="n">
-        <v>161896.002980395</v>
+        <v>161613.2249622937</v>
       </c>
       <c r="P6" t="n">
-        <v>161896.0029803948</v>
+        <v>161613.2249622936</v>
       </c>
     </row>
   </sheetData>
@@ -27381,16 +27381,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>59.54045732377733</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>5.882414251447017</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>91.97701519844234</v>
+        <v>26.89504188548702</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>336.1573811915252</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>232.8337600059343</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.8853134985968</v>
       </c>
       <c r="C7" t="n">
-        <v>18.44967133088753</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>257.3106834462779</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27909,13 +27909,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>7.971738496535806</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>106.2105945228212</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34704,16 +34704,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>73.06155854104185</v>
+      </c>
+      <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>556.2278131155941</v>
@@ -34722,7 +34722,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="L3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34941,19 +34941,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>615.6877999324691</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>978.7015692240873</v>
+        <v>25.27428904671797</v>
       </c>
       <c r="N5" t="n">
         <v>978.7015692240873</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>251.8062126063877</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>978.7015692240873</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>978.7015692240873</v>
@@ -35187,16 +35187,16 @@
         <v>978.7015692240873</v>
       </c>
       <c r="O8" t="n">
-        <v>256.1087764645991</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>18.99795722941354</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.1087764645995</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,19 +35418,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>978.7015692240873</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>978.7015692240873</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>278.1307147858698</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.6936802674302</v>
       </c>
       <c r="L12" t="n">
-        <v>821.5613952530392</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>643.172141972024</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>978.7015692240873</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>278.1307147858698</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>175.4260559337399</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>738.7136072886926</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>742.2666496462653</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>9.506548990083218</v>
       </c>
       <c r="L24" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>38.24192940494229</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>404.3842704899966</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>404.3842704899966</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>487.2320584543432</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37551,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>19.53098502454905</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>634.6913501810429</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>756.4535108617216</v>
+        <v>631.4334064364346</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O44" t="n">
-        <v>671.1197760450909</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>6.419203679533067</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>978.7015692240873</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>848.2556333824881</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
